--- a/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
+++ b/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FFBBEB-E424-42DA-957F-E45DBD4F2732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE7B214-24CD-4969-876C-1D5479E1D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{52FD7E20-E24A-43B6-9617-DADB0A4E1BB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F433202C-6EE4-47C4-B0F9-B6309CE4064F}"/>
   </bookViews>
   <sheets>
     <sheet name="10.Monster_Group_Table" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40DCDD1-5DC8-4B0D-94CC-1F7766F8D626}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8779F9-7524-49A8-A8EA-25F2CCE9D458}">
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:V1048576"/>
@@ -969,6 +969,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
+++ b/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE7B214-24CD-4969-876C-1D5479E1D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6610904B-99D2-4DF2-A957-4ED1427B1E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F433202C-6EE4-47C4-B0F9-B6309CE4064F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{971BFB0F-B942-4DFE-A1A3-A9A79742454D}"/>
   </bookViews>
   <sheets>
     <sheet name="10.Monster_Group_Table" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8779F9-7524-49A8-A8EA-25F2CCE9D458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE919D1-E0C4-4A2D-BCD4-58EE280FF11E}">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
+++ b/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6610904B-99D2-4DF2-A957-4ED1427B1E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D25FC530-DDE2-453E-A7DE-F6E39CB20265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{971BFB0F-B942-4DFE-A1A3-A9A79742454D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C4397F28-E5CE-49AE-AB01-E551DFD84DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="10.Monster_Group_Table" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Key_id</t>
+  </si>
   <si>
     <t>group_id</t>
   </si>
   <si>
+    <t>stage_type</t>
+  </si>
+  <si>
     <t>monster_id 1</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
   </si>
   <si>
     <t>monster_count_10</t>
+  </si>
+  <si>
+    <t>group_per</t>
   </si>
   <si>
     <t>reward</t>
@@ -484,16 +493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE919D1-E0C4-4A2D-BCD4-58EE280FF11E}">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85426E-80D0-4495-9A65-93854B085BA2}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1048576"/>
+      <selection sqref="A1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +570,17 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -626,10 +645,19 @@
         <v>0</v>
       </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>10000</v>
+      </c>
+      <c r="Y2">
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -637,25 +665,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -694,148 +722,175 @@
         <v>0</v>
       </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>2000</v>
+      </c>
+      <c r="Y3">
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>2000</v>
+      </c>
+      <c r="Y4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>2000</v>
+      </c>
+      <c r="Y5">
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -844,40 +899,40 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>9</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -898,36 +953,45 @@
         <v>0</v>
       </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>2000</v>
+      </c>
+      <c r="Y6">
         <v>1101</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -966,36 +1030,45 @@
         <v>0</v>
       </c>
       <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>2000</v>
+      </c>
+      <c r="Y7">
         <v>1101</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1034,6 +1107,15 @@
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>10000</v>
+      </c>
+      <c r="Y8">
         <v>1101</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
+++ b/Plan/Table/Live_Data/10.Monster_Group_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D25FC530-DDE2-453E-A7DE-F6E39CB20265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F34A1B-0845-4622-8856-AAD84D10452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C4397F28-E5CE-49AE-AB01-E551DFD84DEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A1D99477-389C-4C5D-896D-E186F98FD386}"/>
   </bookViews>
   <sheets>
     <sheet name="10.Monster_Group_Table" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85426E-80D0-4495-9A65-93854B085BA2}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB03685-E295-4DA9-A3FB-6A6388DF11AE}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -654,7 +653,7 @@
         <v>10000</v>
       </c>
       <c r="Y2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -731,7 +730,7 @@
         <v>2000</v>
       </c>
       <c r="Y3">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -808,7 +807,7 @@
         <v>2000</v>
       </c>
       <c r="Y4">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -885,7 +884,7 @@
         <v>2000</v>
       </c>
       <c r="Y5">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -962,7 +961,7 @@
         <v>2000</v>
       </c>
       <c r="Y6">
-        <v>1101</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1039,7 +1038,7 @@
         <v>2000</v>
       </c>
       <c r="Y7">
-        <v>1101</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
